--- a/Manuelno testiranje/Pets Meet/Test Case.xlsx
+++ b/Manuelno testiranje/Pets Meet/Test Case.xlsx
@@ -58,9 +58,6 @@
     <t>"Tanja"is visible in name field</t>
   </si>
   <si>
-    <t>bgdtanja@gmail.com</t>
-  </si>
-  <si>
     <t>"bgdtanja@gmail.com" is visible in email field</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Verify that contact form is not submited when ALL fields are EMPTY and Submit button is clicked on Contact page.</t>
+  </si>
+  <si>
+    <t>valid email</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -836,13 +836,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>0</v>
@@ -864,20 +864,20 @@
     </row>
     <row r="3" spans="1:6" ht="42.5" customHeight="1">
       <c r="A3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -897,7 +897,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -923,13 +923,13 @@
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>11</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5">
@@ -937,42 +937,42 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5">
+    </row>
+    <row r="9" spans="1:6" ht="58">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="116">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId1" display="bgdtanja@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -987,7 +987,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1002,13 +1002,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>0</v>
@@ -1030,20 +1030,20 @@
     </row>
     <row r="3" spans="1:6" ht="84.5">
       <c r="A3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -1063,7 +1063,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -1075,13 +1075,13 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -1089,13 +1089,13 @@
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="58">
@@ -1103,16 +1103,16 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId1" display="bgdtanja@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1141,16 +1141,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>0</v>
@@ -1169,20 +1169,20 @@
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>85</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29">
@@ -1191,10 +1191,10 @@
       <c r="C4" s="22"/>
       <c r="D4" s="5"/>
       <c r="E4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -1203,10 +1203,10 @@
       <c r="C5" s="22"/>
       <c r="D5" s="5"/>
       <c r="E5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="58">
@@ -1214,13 +1214,13 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.5">
@@ -1229,10 +1229,10 @@
       <c r="C7" s="22"/>
       <c r="D7" s="9"/>
       <c r="E7" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29">
@@ -1241,10 +1241,10 @@
       <c r="C8" s="22"/>
       <c r="D8" s="5"/>
       <c r="E8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="87">
@@ -1253,10 +1253,10 @@
       <c r="C9" s="25"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="87.5">
@@ -1265,10 +1265,10 @@
       <c r="C10" s="25"/>
       <c r="D10" s="9"/>
       <c r="E10" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25">
@@ -1277,10 +1277,10 @@
       <c r="C11" s="25"/>
       <c r="D11" s="9"/>
       <c r="E11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
@@ -4262,7 +4262,7 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4279,16 +4279,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="19" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>0</v>
@@ -4311,21 +4311,21 @@
     </row>
     <row r="3" spans="1:7" ht="84.5">
       <c r="A3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="87">
@@ -4334,11 +4334,11 @@
       <c r="C4" s="22"/>
       <c r="D4" s="8"/>
       <c r="E4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="116">
@@ -4347,11 +4347,11 @@
       <c r="C5" s="22"/>
       <c r="D5" s="8"/>
       <c r="E5" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.5">
@@ -4360,13 +4360,13 @@
       <c r="C6" s="22"/>
       <c r="D6" s="12"/>
       <c r="E6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29">
@@ -4375,13 +4375,13 @@
       <c r="C7" s="22"/>
       <c r="D7" s="13"/>
       <c r="E7" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="14">
         <v>45116</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" customHeight="1">
@@ -4390,11 +4390,11 @@
       <c r="C8" s="22"/>
       <c r="D8" s="8"/>
       <c r="E8" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29">
@@ -4403,11 +4403,11 @@
       <c r="C9" s="25"/>
       <c r="D9" s="8"/>
       <c r="E9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72.5">
@@ -4416,11 +4416,11 @@
       <c r="C10" s="25"/>
       <c r="D10" s="8"/>
       <c r="E10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="116">
@@ -4429,28 +4429,28 @@
       <c r="C11" s="25"/>
       <c r="D11" s="8"/>
       <c r="E11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="72.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29">
@@ -4459,13 +4459,13 @@
       <c r="C13" s="25"/>
       <c r="D13" s="16"/>
       <c r="E13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5">
@@ -4474,11 +4474,11 @@
       <c r="C14" s="25"/>
       <c r="D14" s="8"/>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29">
@@ -4487,11 +4487,11 @@
       <c r="C15" s="25"/>
       <c r="D15" s="8"/>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
@@ -7476,13 +7476,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -7500,13 +7500,13 @@
     </row>
     <row r="3" spans="1:5" ht="84.5">
       <c r="A3" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -7531,7 +7531,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -7542,10 +7542,10 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
